--- a/메뉴 구조도.xlsx
+++ b/메뉴 구조도.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Developer\Project\dominoClone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC2B139-AE45-414C-8302-1491D3C74681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B6A123-278A-4E4C-9C07-FFE1EE853C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9072AD71-CAC9-4B92-8BB3-14F635348B3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9072AD71-CAC9-4B92-8BB3-14F635348B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="106">
   <si>
     <t>화면명</t>
   </si>
@@ -431,6 +431,18 @@
   </si>
   <si>
     <t>산출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사용자 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹별 권한 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -553,13 +565,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +616,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,10 +634,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,59 +957,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F198FB1C-5DD4-4D80-A0D9-FFE02780FF10}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="11" width="16.5" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="16.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="8" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1033,7 @@
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="4" t="s">
         <v>61</v>
       </c>
@@ -995,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1020,7 +1069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1045,7 +1094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1072,8 +1121,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1099,8 +1148,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1124,8 +1173,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1149,8 +1198,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1174,8 +1223,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1199,8 +1248,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1224,8 +1273,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1249,8 +1298,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1276,8 +1325,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1303,8 +1352,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1330,8 +1379,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1355,8 +1404,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1382,8 +1431,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1409,8 +1458,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1436,8 +1485,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2"/>
@@ -1461,8 +1510,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
@@ -1486,8 +1535,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1511,8 +1560,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -1561,67 +1610,57 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
@@ -1638,17 +1677,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
@@ -1659,25 +1696,23 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>33</v>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
@@ -1694,15 +1729,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
@@ -1719,17 +1756,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
@@ -1746,19 +1785,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>33</v>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
@@ -1775,17 +1810,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
@@ -1802,16 +1837,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>33</v>
@@ -1831,15 +1866,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
@@ -1856,17 +1893,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
@@ -1883,19 +1922,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>33</v>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
@@ -1912,15 +1947,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7"/>
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
@@ -1937,17 +1974,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
@@ -1964,19 +2003,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>33</v>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
@@ -1993,15 +2028,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
       <c r="B41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
@@ -2018,17 +2055,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
@@ -2045,15 +2084,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
@@ -2070,17 +2109,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
@@ -2097,19 +2136,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
@@ -2126,15 +2161,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
@@ -2145,21 +2182,25 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="O46" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+      <c r="B47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
@@ -2171,20 +2212,20 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
@@ -2195,23 +2236,21 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
@@ -2223,20 +2262,20 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="N49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
@@ -2253,15 +2292,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
@@ -2278,15 +2319,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="7"/>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
@@ -2297,23 +2338,21 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="O52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" s="7"/>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
@@ -2330,15 +2369,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
@@ -2355,15 +2394,17 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
@@ -2380,15 +2421,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="7"/>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
@@ -2405,17 +2446,15 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>57</v>
-      </c>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="7"/>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
@@ -2432,15 +2471,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="7"/>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
@@ -2457,15 +2496,17 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
@@ -2482,15 +2523,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" s="7"/>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
@@ -2507,15 +2548,58 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="7"/>
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="7"/>
+      <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A46"/>
+  <mergeCells count="16">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:O1"/>
@@ -2524,6 +2608,14 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,23 +2627,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB7E89E-8A64-49FB-AEBC-1C452F75B52D}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16" width="10.25" customWidth="1"/>
+    <col min="1" max="16" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="5"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2564,7 +2656,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>

--- a/메뉴 구조도.xlsx
+++ b/메뉴 구조도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Developer\Project\dominoClone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B6A123-278A-4E4C-9C07-FFE1EE853C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F698924-EA2B-476D-BCB0-4A0071ABD8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9072AD71-CAC9-4B92-8BB3-14F635348B3E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="106">
   <si>
     <t>화면명</t>
   </si>
@@ -597,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,13 +634,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F198FB1C-5DD4-4D80-A0D9-FFE02780FF10}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1122,7 +1125,7 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1149,7 +1152,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1174,7 +1177,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1199,7 +1202,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1224,7 +1227,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1249,7 +1252,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1274,7 +1277,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1299,7 +1302,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1326,7 +1329,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1353,7 +1356,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1380,7 +1383,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1405,7 +1408,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1435,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1459,7 +1462,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1489,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2"/>
@@ -1511,7 +1514,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
@@ -1536,7 +1539,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1561,7 +1564,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1619,9 +1622,13 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1640,9 +1647,13 @@
         <v>105</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -1653,7 +1664,7 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="2"/>
@@ -1678,7 +1689,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
@@ -1703,7 +1714,7 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1730,7 +1741,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1768,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1786,7 +1797,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1811,7 +1822,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1849,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1867,7 +1878,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1905,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +1934,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
@@ -1948,7 +1959,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
@@ -1975,7 +1986,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="2" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +2015,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
@@ -2029,7 +2040,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
@@ -2056,7 +2067,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
@@ -2085,7 +2096,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2121,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
@@ -2137,7 +2148,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="7"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
@@ -2162,7 +2173,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="7"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
@@ -2189,7 +2200,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2229,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48" s="7"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="2" t="s">
         <v>75</v>
       </c>
@@ -2293,7 +2304,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2320,7 +2331,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A52" s="7"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="2" t="s">
         <v>72</v>
       </c>
@@ -2345,7 +2356,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="2" t="s">
         <v>73</v>
       </c>
@@ -2370,7 +2381,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A54" s="7"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="2" t="s">
         <v>76</v>
       </c>
@@ -2395,7 +2406,7 @@
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2422,7 +2433,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A56" s="7"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A57" s="7"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
@@ -2472,7 +2483,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2497,7 +2508,7 @@
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2524,7 +2535,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A60" s="7"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="2" t="s">
         <v>67</v>
       </c>
@@ -2549,7 +2560,7 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A61" s="7"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
@@ -2574,7 +2585,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
@@ -2600,6 +2611,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:O1"/>
@@ -2608,14 +2627,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A48"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,10 +2651,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="5"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
